--- a/sigset/documentos/flujoscaja.xlsx
+++ b/sigset/documentos/flujoscaja.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>Flujo de caja</t>
   </si>
@@ -226,13 +226,19 @@
   </si>
   <si>
     <t>Otros Gastos</t>
+  </si>
+  <si>
+    <t>Ingresos Mensuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compra de repuestos </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +291,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -509,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -567,6 +580,12 @@
     <xf numFmtId="3" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:N80"/>
+  <dimension ref="B2:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -872,7 +891,9 @@
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="45" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="11.42578125" style="1"/>
+    <col min="4" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="1"/>
     <col min="10" max="10" width="16.140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -965,7 +986,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="34">
-        <f>N73</f>
+        <f>N76</f>
         <v>3869060</v>
       </c>
       <c r="D9" s="34"/>
@@ -995,7 +1016,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="34"/>
@@ -1005,7 +1026,7 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="34"/>
@@ -1015,7 +1036,7 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="34"/>
@@ -1024,18 +1045,18 @@
       <c r="G14" s="34"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="B15" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="36"/>
@@ -1044,20 +1065,20 @@
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="37"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
       <c r="F18" s="34"/>
@@ -1065,7 +1086,7 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="34"/>
@@ -1074,58 +1095,58 @@
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="39" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="53" t="s">
+      <c r="C22" s="39"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="39" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="34"/>
@@ -1135,7 +1156,7 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="34"/>
@@ -1145,7 +1166,7 @@
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="34"/>
@@ -1155,7 +1176,7 @@
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="34"/>
@@ -1165,7 +1186,7 @@
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="37"/>
       <c r="D29" s="34"/>
@@ -1175,7 +1196,7 @@
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="34"/>
@@ -1184,618 +1205,646 @@
       <c r="G30" s="34"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="37"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="34" spans="2:4">
-      <c r="B34" s="47" t="s">
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="58"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="37" spans="2:7">
+      <c r="B37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="9">
+      <c r="C37" s="3"/>
+      <c r="D37" s="9">
         <v>10800000</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="48" t="s">
+    <row r="38" spans="2:7">
+      <c r="B38" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="10">
+      <c r="C38" s="5"/>
+      <c r="D38" s="10">
         <v>3250000</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B36" s="49" t="s">
+    <row r="39" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B39" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="11">
+      <c r="C39" s="7"/>
+      <c r="D39" s="11">
         <v>2150000</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="15.75" thickBot="1">
-      <c r="C37" s="13" t="s">
+    <row r="40" spans="2:7" ht="15.75" thickBot="1">
+      <c r="C40" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="14">
-        <f>SUM(D34:D36)</f>
+      <c r="D40" s="14">
+        <f>SUM(D37:D39)</f>
         <v>16200000</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="50" t="s">
+    <row r="43" spans="2:7">
+      <c r="B43" s="50" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="15.75" thickBot="1"/>
-    <row r="42" spans="2:4">
-      <c r="B42" s="47" t="s">
+    <row r="44" spans="2:7" ht="15.75" thickBot="1"/>
+    <row r="45" spans="2:7">
+      <c r="B45" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="9">
+      <c r="C45" s="3"/>
+      <c r="D45" s="9">
         <v>2000000</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="48" t="s">
+    <row r="46" spans="2:7">
+      <c r="B46" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="10">
+      <c r="C46" s="5"/>
+      <c r="D46" s="10">
         <v>187000</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="48" t="s">
+    <row r="47" spans="2:7">
+      <c r="B47" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="10">
+      <c r="C47" s="5"/>
+      <c r="D47" s="10">
         <v>250000</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="15.75" thickBot="1">
-      <c r="B45" s="49" t="s">
+    <row r="48" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B48" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="11">
+      <c r="C48" s="7"/>
+      <c r="D48" s="11">
         <v>200000</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="15.75" thickBot="1">
-      <c r="C46" s="13" t="s">
+    <row r="49" spans="2:5" ht="15.75" thickBot="1">
+      <c r="C49" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="14">
-        <f>SUM(D42:D45)</f>
+      <c r="D49" s="14">
+        <f>SUM(D45:D48)</f>
         <v>2637000</v>
       </c>
     </row>
-    <row r="49" spans="2:14">
-      <c r="B49" s="50" t="s">
+    <row r="52" spans="2:5">
+      <c r="B52" s="50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="15.75" thickBot="1"/>
-    <row r="51" spans="2:14">
-      <c r="B51" s="47" t="s">
+    <row r="53" spans="2:5" ht="15.75" thickBot="1"/>
+    <row r="54" spans="2:5">
+      <c r="B54" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="9">
+      <c r="C54" s="3"/>
+      <c r="D54" s="9">
         <v>700000</v>
       </c>
     </row>
-    <row r="52" spans="2:14">
-      <c r="B52" s="48" t="s">
+    <row r="55" spans="2:5">
+      <c r="B55" s="48" t="s">
         <v>12</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="10">
-        <v>187000</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="10">
-        <v>13900</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14">
-      <c r="B54" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="10">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14">
-      <c r="B55" s="48" t="s">
-        <v>16</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="10">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14">
+        <v>187000</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
       <c r="B56" s="48" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="10">
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B57" s="49" t="s">
+    <row r="60" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B60" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="11">
+      <c r="C60" s="7"/>
+      <c r="D60" s="11">
         <v>30000</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="15.75" thickBot="1">
-      <c r="C58" s="6" t="s">
+    <row r="61" spans="2:5" ht="15.75" thickBot="1">
+      <c r="C61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="8">
-        <f>SUM(D51:D57)</f>
+      <c r="D61" s="8">
+        <f>SUM(D54:D60)</f>
         <v>971900</v>
       </c>
     </row>
-    <row r="62" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B62" s="45" t="s">
+    <row r="65" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B65" s="45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B63" s="51" t="s">
+    <row r="66" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B66" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18" t="s">
+      <c r="C66" s="18"/>
+      <c r="D66" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="E66" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F66" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18" t="s">
+      <c r="G66" s="18"/>
+      <c r="H66" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="17" t="s">
+      <c r="I66" s="18"/>
+      <c r="J66" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K63" s="18" t="s">
+      <c r="K66" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="L66" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="M63" s="21"/>
-    </row>
-    <row r="64" spans="2:14">
-      <c r="B64" s="47" t="s">
+      <c r="M66" s="21"/>
+    </row>
+    <row r="67" spans="2:14">
+      <c r="B67" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="9">
+      <c r="C67" s="3"/>
+      <c r="D67" s="9">
         <v>1</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E67" s="3">
         <v>240000</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="22">
-        <f>E64*D64</f>
+      <c r="F67" s="9"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="22">
+        <f>E67*D67</f>
         <v>240000</v>
       </c>
-      <c r="J64" s="4">
-        <f>I64*0.12</f>
+      <c r="J67" s="4">
+        <f>I67*0.12</f>
         <v>28800</v>
       </c>
-      <c r="K64" s="10">
-        <f>I64*0.07</f>
+      <c r="K67" s="10">
+        <f>I67*0.07</f>
         <v>16800</v>
       </c>
-      <c r="L64" s="5">
-        <f>I64*0.006</f>
+      <c r="L67" s="5">
+        <f>I67*0.006</f>
         <v>1440</v>
       </c>
-      <c r="M64" s="16"/>
-      <c r="N64" s="9">
-        <f xml:space="preserve"> SUM(I64:L64)</f>
+      <c r="M67" s="16"/>
+      <c r="N67" s="9">
+        <f xml:space="preserve"> SUM(I67:L67)</f>
         <v>287040</v>
       </c>
     </row>
-    <row r="65" spans="2:14">
-      <c r="B65" s="48" t="s">
+    <row r="68" spans="2:14">
+      <c r="B68" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="10">
+      <c r="C68" s="5"/>
+      <c r="D68" s="10">
         <v>1</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E68" s="5">
         <v>160000</v>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="23">
-        <f t="shared" ref="I65:I68" si="1">E65*D65</f>
+      <c r="F68" s="10"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="23">
+        <f t="shared" ref="I68:I71" si="1">E68*D68</f>
         <v>160000</v>
       </c>
-      <c r="J65" s="4">
-        <f t="shared" ref="J65:J72" si="2">I65*0.12</f>
+      <c r="J68" s="4">
+        <f t="shared" ref="J68:J75" si="2">I68*0.12</f>
         <v>19200</v>
       </c>
-      <c r="K65" s="10">
-        <f t="shared" ref="K65:K72" si="3">I65*0.07</f>
+      <c r="K68" s="10">
+        <f t="shared" ref="K68:K75" si="3">I68*0.07</f>
         <v>11200.000000000002</v>
       </c>
-      <c r="L65" s="5">
-        <f t="shared" ref="L65:L72" si="4">I65*0.006</f>
+      <c r="L68" s="5">
+        <f t="shared" ref="L68:L75" si="4">I68*0.006</f>
         <v>960</v>
       </c>
-      <c r="M65" s="16"/>
-      <c r="N65" s="10">
-        <f t="shared" ref="N65:N68" si="5" xml:space="preserve"> SUM(I65:L65)</f>
+      <c r="M68" s="16"/>
+      <c r="N68" s="10">
+        <f t="shared" ref="N68:N71" si="5" xml:space="preserve"> SUM(I68:L68)</f>
         <v>191360</v>
       </c>
     </row>
-    <row r="66" spans="2:14">
-      <c r="B66" s="48" t="s">
+    <row r="69" spans="2:14">
+      <c r="B69" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="10">
+      <c r="C69" s="5"/>
+      <c r="D69" s="10">
         <v>1</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E69" s="5">
         <v>300000</v>
       </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="23">
+      <c r="F69" s="10"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="23">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
-      <c r="J66" s="4">
+      <c r="J69" s="4">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K69" s="10">
         <f t="shared" si="3"/>
         <v>21000.000000000004</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L69" s="5">
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="M66" s="16"/>
-      <c r="N66" s="10">
+      <c r="M69" s="16"/>
+      <c r="N69" s="10">
         <f t="shared" si="5"/>
         <v>358800</v>
       </c>
     </row>
-    <row r="67" spans="2:14">
-      <c r="B67" s="48" t="s">
+    <row r="70" spans="2:14">
+      <c r="B70" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="10">
+      <c r="C70" s="5"/>
+      <c r="D70" s="10">
         <v>1</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E70" s="5">
         <v>215000</v>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="23">
+      <c r="F70" s="10"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="23">
         <f t="shared" si="1"/>
         <v>215000</v>
       </c>
-      <c r="J67" s="4">
+      <c r="J70" s="4">
         <f t="shared" si="2"/>
         <v>25800</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K70" s="10">
         <f t="shared" si="3"/>
         <v>15050.000000000002</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L70" s="5">
         <f t="shared" si="4"/>
         <v>1290</v>
       </c>
-      <c r="M67" s="16"/>
-      <c r="N67" s="10">
+      <c r="M70" s="16"/>
+      <c r="N70" s="10">
         <f t="shared" si="5"/>
         <v>257140</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B68" s="49" t="s">
+    <row r="71" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B71" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="11">
+      <c r="C71" s="7"/>
+      <c r="D71" s="11">
         <v>1</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E71" s="7">
         <v>600000</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="24">
+      <c r="F71" s="11"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="24">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J71" s="6">
         <f t="shared" si="2"/>
         <v>72000</v>
       </c>
-      <c r="K68" s="11">
+      <c r="K71" s="11">
         <f t="shared" si="3"/>
         <v>42000.000000000007</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L71" s="7">
         <f t="shared" si="4"/>
         <v>3600</v>
       </c>
-      <c r="M68" s="8"/>
-      <c r="N68" s="11">
+      <c r="M71" s="8"/>
+      <c r="N71" s="11">
         <f t="shared" si="5"/>
         <v>717600</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B69" s="51" t="s">
+    <row r="72" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B72" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18" t="s">
+      <c r="C72" s="18"/>
+      <c r="D72" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E72" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F69" s="19" t="s">
+      <c r="F72" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19" t="s">
+      <c r="G72" s="19"/>
+      <c r="H72" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I69" s="25"/>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" s="48" t="s">
+      <c r="I72" s="25"/>
+    </row>
+    <row r="73" spans="2:14">
+      <c r="B73" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="2">
+      <c r="C73" s="5"/>
+      <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E73" s="2">
         <v>170000</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F73" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="9">
-        <f>SUM(E70+G70)</f>
+      <c r="G73" s="3"/>
+      <c r="H73" s="9">
+        <f>SUM(E73+G73)</f>
         <v>170000</v>
       </c>
-      <c r="I70" s="22">
-        <f>D70*H70</f>
+      <c r="I73" s="22">
+        <f>D73*H73</f>
         <v>340000</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J73" s="2">
         <f t="shared" si="2"/>
         <v>40800</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K73" s="9">
         <f t="shared" si="3"/>
         <v>23800.000000000004</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L73" s="2">
         <f t="shared" si="4"/>
         <v>2040</v>
       </c>
-      <c r="M70" s="15"/>
-      <c r="N70" s="9">
-        <f>SUM(I70:M70)</f>
+      <c r="M73" s="15"/>
+      <c r="N73" s="9">
+        <f>SUM(I73:M73)</f>
         <v>406640</v>
       </c>
     </row>
-    <row r="71" spans="2:14">
-      <c r="B71" s="48" t="s">
+    <row r="74" spans="2:14">
+      <c r="B74" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="4">
+      <c r="C74" s="5"/>
+      <c r="D74" s="4">
         <v>2</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E74" s="4">
         <v>250000</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F74" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G74" s="5">
         <v>75000</v>
       </c>
-      <c r="H71" s="10">
-        <f t="shared" ref="H71:H72" si="6">SUM(E71+G71)</f>
+      <c r="H74" s="10">
+        <f t="shared" ref="H74:H75" si="6">SUM(E74+G74)</f>
         <v>325000</v>
       </c>
-      <c r="I71" s="23">
-        <f t="shared" ref="I71:I72" si="7">D71*H71</f>
+      <c r="I74" s="23">
+        <f t="shared" ref="I74:I75" si="7">D74*H74</f>
         <v>650000</v>
       </c>
-      <c r="J71" s="4">
+      <c r="J74" s="4">
         <f t="shared" si="2"/>
         <v>78000</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K74" s="10">
         <f t="shared" si="3"/>
         <v>45500.000000000007</v>
       </c>
-      <c r="L71" s="4">
+      <c r="L74" s="4">
         <f t="shared" si="4"/>
         <v>3900</v>
       </c>
-      <c r="M71" s="16"/>
-      <c r="N71" s="10">
-        <f t="shared" ref="N71:N72" si="8">SUM(I71:M71)</f>
+      <c r="M74" s="16"/>
+      <c r="N74" s="10">
+        <f t="shared" ref="N74:N75" si="8">SUM(I74:M74)</f>
         <v>777400</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="15.75" thickBot="1">
-      <c r="B72" s="49" t="s">
+    <row r="75" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B75" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6">
+      <c r="C75" s="7"/>
+      <c r="D75" s="6">
         <v>2</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E75" s="6">
         <v>290000</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="F75" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G75" s="7">
         <v>75000</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H75" s="11">
         <f t="shared" si="6"/>
         <v>365000</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I75" s="24">
         <f t="shared" si="7"/>
         <v>730000</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J75" s="6">
         <f t="shared" si="2"/>
         <v>87600</v>
       </c>
-      <c r="K72" s="11">
+      <c r="K75" s="11">
         <f t="shared" si="3"/>
         <v>51100.000000000007</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L75" s="6">
         <f t="shared" si="4"/>
         <v>4380</v>
       </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="11">
+      <c r="M75" s="8"/>
+      <c r="N75" s="11">
         <f t="shared" si="8"/>
         <v>873080</v>
       </c>
     </row>
-    <row r="73" spans="2:14">
-      <c r="H73" s="12" t="s">
+    <row r="76" spans="2:14">
+      <c r="H76" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I73" s="12">
-        <f>SUM(I64:I72)</f>
+      <c r="I76" s="12">
+        <f>SUM(I67:I75)</f>
         <v>3235000</v>
       </c>
-      <c r="J73" s="12">
-        <f>SUM(J64:J72)</f>
+      <c r="J76" s="12">
+        <f>SUM(J67:J75)</f>
         <v>388200</v>
       </c>
-      <c r="K73" s="12">
-        <f t="shared" ref="K73:L73" si="9">SUM(K64:K72)</f>
+      <c r="K76" s="12">
+        <f t="shared" ref="K76:L76" si="9">SUM(K67:K75)</f>
         <v>226450</v>
       </c>
-      <c r="L73" s="12">
+      <c r="L76" s="12">
         <f t="shared" si="9"/>
         <v>19410</v>
       </c>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12">
-        <f>SUM(N64:N72)</f>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12">
+        <f>SUM(N67:N75)</f>
         <v>3869060</v>
       </c>
     </row>
-    <row r="74" spans="2:14">
-      <c r="I74" s="20"/>
-    </row>
-    <row r="76" spans="2:14" ht="15.75" thickBot="1"/>
     <row r="77" spans="2:14">
-      <c r="D77" s="26" t="s">
+      <c r="I77" s="20"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="80" spans="2:14">
+      <c r="D80" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="31">
-        <f>I73</f>
+      <c r="E80" s="19"/>
+      <c r="F80" s="31">
+        <f>I76</f>
         <v>3235000</v>
       </c>
     </row>
-    <row r="78" spans="2:14">
-      <c r="D78" s="27" t="s">
+    <row r="81" spans="4:6">
+      <c r="D81" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="32">
-        <f>J73+K73+L73</f>
+      <c r="E81" s="28"/>
+      <c r="F81" s="32">
+        <f>J76+K76+L76</f>
         <v>634060</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="15.75" thickBot="1">
-      <c r="D79" s="29" t="s">
+    <row r="82" spans="4:6" ht="15.75" thickBot="1">
+      <c r="D82" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="33"/>
-    </row>
-    <row r="80" spans="2:14">
-      <c r="F80" s="1" t="e">
-        <f xml:space="preserve"> t</f>
-        <v>#NAME?</v>
+      <c r="E82" s="30"/>
+      <c r="F82" s="33"/>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="F83" s="1">
+        <f>SUM(F80:F81)</f>
+        <v>3869060</v>
       </c>
     </row>
   </sheetData>
